--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.349434</v>
+        <v>0.113818</v>
       </c>
       <c r="H2">
-        <v>1.048302</v>
+        <v>0.341454</v>
       </c>
       <c r="I2">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="J2">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>22.41709</v>
+        <v>26.532132</v>
       </c>
       <c r="N2">
-        <v>67.25127000000001</v>
+        <v>79.596396</v>
       </c>
       <c r="O2">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233649</v>
       </c>
       <c r="P2">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233648</v>
       </c>
       <c r="Q2">
-        <v>7.833293427060001</v>
+        <v>3.019834199976</v>
       </c>
       <c r="R2">
-        <v>70.49964084354001</v>
+        <v>27.178507799784</v>
       </c>
       <c r="S2">
-        <v>0.0003974097178958079</v>
+        <v>0.0001279389352926314</v>
       </c>
       <c r="T2">
-        <v>0.0003974097178958079</v>
+        <v>0.0001279389352926313</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.349434</v>
+        <v>0.113818</v>
       </c>
       <c r="H3">
-        <v>1.048302</v>
+        <v>0.341454</v>
       </c>
       <c r="I3">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="J3">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>50.345671</v>
       </c>
       <c r="O3">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="P3">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="Q3">
-        <v>5.864163066738</v>
+        <v>1.910081193959333</v>
       </c>
       <c r="R3">
-        <v>52.77746760064201</v>
+        <v>17.190730745634</v>
       </c>
       <c r="S3">
-        <v>0.0002975090122370203</v>
+        <v>8.09229044030223E-05</v>
       </c>
       <c r="T3">
-        <v>0.0002975090122370204</v>
+        <v>8.09229044030223E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.349434</v>
+        <v>0.113818</v>
       </c>
       <c r="H4">
-        <v>1.048302</v>
+        <v>0.341454</v>
       </c>
       <c r="I4">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="J4">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.00595566666667</v>
+        <v>23.67385</v>
       </c>
       <c r="N4">
-        <v>51.017867</v>
+        <v>71.02154999999999</v>
       </c>
       <c r="O4">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="P4">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="Q4">
-        <v>5.942459112426</v>
+        <v>2.694510259299999</v>
       </c>
       <c r="R4">
-        <v>53.482132011834</v>
+        <v>24.25059233369999</v>
       </c>
       <c r="S4">
-        <v>0.0003014812379322479</v>
+        <v>0.0001141561923209737</v>
       </c>
       <c r="T4">
-        <v>0.0003014812379322479</v>
+        <v>0.0001141561923209737</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1046.932404</v>
       </c>
       <c r="I5">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599795</v>
       </c>
       <c r="J5">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599794</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>22.41709</v>
+        <v>26.532132</v>
       </c>
       <c r="N5">
-        <v>67.25127000000001</v>
+        <v>79.596396</v>
       </c>
       <c r="O5">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233649</v>
       </c>
       <c r="P5">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233648</v>
       </c>
       <c r="Q5">
-        <v>7823.05930812812</v>
+        <v>9259.116246001777</v>
       </c>
       <c r="R5">
-        <v>70407.53377315307</v>
+        <v>83332.04621401598</v>
       </c>
       <c r="S5">
-        <v>0.3968905061037944</v>
+        <v>0.3922736798840107</v>
       </c>
       <c r="T5">
-        <v>0.3968905061037944</v>
+        <v>0.3922736798840106</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1046.932404</v>
       </c>
       <c r="I6">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599795</v>
       </c>
       <c r="J6">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599794</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>50.345671</v>
       </c>
       <c r="O6">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="P6">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="Q6">
         <v>5856.501596780342</v>
@@ -818,10 +818,10 @@
         <v>52708.51437102308</v>
       </c>
       <c r="S6">
-        <v>0.2971203197103211</v>
+        <v>0.2481177870088455</v>
       </c>
       <c r="T6">
-        <v>0.2971203197103212</v>
+        <v>0.2481177870088455</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1046.932404</v>
       </c>
       <c r="I7">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599795</v>
       </c>
       <c r="J7">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599794</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.00595566666667</v>
+        <v>23.67385</v>
       </c>
       <c r="N7">
-        <v>51.017867</v>
+        <v>71.02154999999999</v>
       </c>
       <c r="O7">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="P7">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="Q7">
-        <v>5934.695349473584</v>
+        <v>8261.640230811799</v>
       </c>
       <c r="R7">
-        <v>53412.25814526226</v>
+        <v>74354.76207730618</v>
       </c>
       <c r="S7">
-        <v>0.3010873557327032</v>
+        <v>0.3500143997671233</v>
       </c>
       <c r="T7">
-        <v>0.3010873557327032</v>
+        <v>0.3500143997671233</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.369616666666667</v>
+        <v>3.266752</v>
       </c>
       <c r="H8">
-        <v>4.10885</v>
+        <v>9.800255999999999</v>
       </c>
       <c r="I8">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003845</v>
       </c>
       <c r="J8">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003843</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>22.41709</v>
+        <v>26.532132</v>
       </c>
       <c r="N8">
-        <v>67.25127000000001</v>
+        <v>79.596396</v>
       </c>
       <c r="O8">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233649</v>
       </c>
       <c r="P8">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233648</v>
       </c>
       <c r="Q8">
-        <v>30.70282008216667</v>
+        <v>86.673895275264</v>
       </c>
       <c r="R8">
-        <v>276.3253807395</v>
+        <v>780.0650574773759</v>
       </c>
       <c r="S8">
-        <v>0.001557658880147315</v>
+        <v>0.003672044604061521</v>
       </c>
       <c r="T8">
-        <v>0.001557658880147315</v>
+        <v>0.003672044604061519</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.369616666666667</v>
+        <v>3.266752</v>
       </c>
       <c r="H9">
-        <v>4.10885</v>
+        <v>9.800255999999999</v>
       </c>
       <c r="I9">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003845</v>
       </c>
       <c r="J9">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003843</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>50.345671</v>
       </c>
       <c r="O9">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="P9">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="Q9">
-        <v>22.98475669870556</v>
+        <v>54.82227381019733</v>
       </c>
       <c r="R9">
-        <v>206.86281028835</v>
+        <v>493.4004642917759</v>
       </c>
       <c r="S9">
-        <v>0.001166095175750958</v>
+        <v>0.002322612063156811</v>
       </c>
       <c r="T9">
-        <v>0.001166095175750958</v>
+        <v>0.002322612063156811</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.369616666666667</v>
+        <v>3.266752</v>
       </c>
       <c r="H10">
-        <v>4.10885</v>
+        <v>9.800255999999999</v>
       </c>
       <c r="I10">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003845</v>
       </c>
       <c r="J10">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003843</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.00595566666667</v>
+        <v>23.67385</v>
       </c>
       <c r="N10">
-        <v>51.017867</v>
+        <v>71.02154999999999</v>
       </c>
       <c r="O10">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="P10">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="Q10">
-        <v>23.29164031366111</v>
+        <v>77.33659683519998</v>
       </c>
       <c r="R10">
-        <v>209.62476282295</v>
+        <v>696.0293715167999</v>
       </c>
       <c r="S10">
-        <v>0.001181664429217837</v>
+        <v>0.003276458640785513</v>
       </c>
       <c r="T10">
-        <v>0.001181664429217837</v>
+        <v>0.003276458640785512</v>
       </c>
     </row>
   </sheetData>
